--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WebApps\lol\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="778">
   <si>
     <t>en_US</t>
   </si>
@@ -2088,6 +2088,279 @@
   </si>
   <si>
     <t>pt_BR</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>Apart</t>
+  </si>
+  <si>
+    <t>Einzeln</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Frei</t>
+  </si>
+  <si>
+    <t>starterItems</t>
+  </si>
+  <si>
+    <t>Starter Items</t>
+  </si>
+  <si>
+    <t>Startgegenstände</t>
+  </si>
+  <si>
+    <t>mostPopularSetup</t>
+  </si>
+  <si>
+    <t>mostPopularItems</t>
+  </si>
+  <si>
+    <t>Most Popular Setup</t>
+  </si>
+  <si>
+    <t>Most Popular Items</t>
+  </si>
+  <si>
+    <t>Meistgenutztes Setup</t>
+  </si>
+  <si>
+    <t>Meistgenutzte Gegenstände</t>
+  </si>
+  <si>
+    <t>finalTrinket</t>
+  </si>
+  <si>
+    <t>Final Trinket</t>
+  </si>
+  <si>
+    <t>Finales Totem</t>
+  </si>
+  <si>
+    <t>finalBoots</t>
+  </si>
+  <si>
+    <t>Final Boots</t>
+  </si>
+  <si>
+    <t>Finale Schuhe</t>
+  </si>
+  <si>
+    <t>O nas</t>
+  </si>
+  <si>
+    <t>Ostatnie mecze</t>
+  </si>
+  <si>
+    <t>Ostatnie wyszukiwania</t>
+  </si>
+  <si>
+    <t>Ulubieni</t>
+  </si>
+  <si>
+    <t>Bohaterowie</t>
+  </si>
+  <si>
+    <t>Profesjonaliści</t>
+  </si>
+  <si>
+    <t>Pokaż więcej …</t>
+  </si>
+  <si>
+    <t>Ładowanie …</t>
+  </si>
+  <si>
+    <t>Szukanie …</t>
+  </si>
+  <si>
+    <t>Szukaj bohaterów i profesjonalistów</t>
+  </si>
+  <si>
+    <t>Szukaj bohatera</t>
+  </si>
+  <si>
+    <t>Szukaj profesjonalisty</t>
+  </si>
+  <si>
+    <t>Nie znaleziono pasujących meczu!</t>
+  </si>
+  <si>
+    <t>Nie znaleziono pasujących bohaterów!</t>
+  </si>
+  <si>
+    <t>Nie znaleziono pasujących profesjonalistów!</t>
+  </si>
+  <si>
+    <t>Nie znaleziono bohatera w podanym URL!</t>
+  </si>
+  <si>
+    <t>Nie znaleziono profesjonalisty w podanym URL!</t>
+  </si>
+  <si>
+    <t>Nie znaeziono meczu w podanym URL!</t>
+  </si>
+  <si>
+    <t>Skontaktuj się z nami w razie błędu.</t>
+  </si>
+  <si>
+    <t>Wiadomość wysłana pomyślnie</t>
+  </si>
+  <si>
+    <t>Otrzymaliśmy Twoją wiadomość i postaramy się odpowiedzieć w jak najszybszym tempie. Dziękujemy za skontaktowanie się z nami.</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Temat</t>
+  </si>
+  <si>
+    <t>Wiadomość</t>
+  </si>
+  <si>
+    <t>Zostaw nam wiadomość …</t>
+  </si>
+  <si>
+    <t>Wyślij</t>
+  </si>
+  <si>
+    <t>Wystąpił błąd</t>
+  </si>
+  <si>
+    <t>Prosimy rozwiąż CAPTCHA przed wysłaniem zgłoszenia.</t>
+  </si>
+  <si>
+    <t>Spróbuj użyć innych kryteriów</t>
+  </si>
+  <si>
+    <t>maks</t>
+  </si>
+  <si>
+    <t>Długość meczu</t>
+  </si>
+  <si>
+    <t>Wiek {wiek}</t>
+  </si>
+  <si>
+    <t>Przełamania</t>
+  </si>
+  <si>
+    <t>Analiza</t>
+  </si>
+  <si>
+    <t>Wynik</t>
+  </si>
+  <si>
+    <t>Przeciwnik</t>
+  </si>
+  <si>
+    <t>Rozegrano</t>
+  </si>
+  <si>
+    <t>Podsumowanie</t>
+  </si>
+  <si>
+    <t>Uczestnicy</t>
+  </si>
+  <si>
+    <t>Statystyki</t>
+  </si>
+  <si>
+    <t>Najbardziej popularne</t>
+  </si>
+  <si>
+    <t>Według kupionych przedmiotów</t>
+  </si>
+  <si>
+    <t>Według rozdanych umiejętności</t>
+  </si>
+  <si>
+    <t>Ukończony build</t>
+  </si>
+  <si>
+    <t>Runa kluczowa</t>
+  </si>
+  <si>
+    <t>Runa większa</t>
+  </si>
+  <si>
+    <t>Pozycja</t>
+  </si>
+  <si>
+    <t>Idealne</t>
+  </si>
+  <si>
+    <t>Udział w zabójstwach</t>
+  </si>
+  <si>
+    <t>Góra</t>
+  </si>
+  <si>
+    <t>Dżungla</t>
+  </si>
+  <si>
+    <t>Środek</t>
+  </si>
+  <si>
+    <t>Strzelec</t>
+  </si>
+  <si>
+    <t>Wsparcie</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Osobno</t>
+  </si>
+  <si>
+    <t>Darmowa</t>
+  </si>
+  <si>
+    <t>Wygrana</t>
+  </si>
+  <si>
+    <t>W grze</t>
+  </si>
+  <si>
+    <t>Zwycięstwo</t>
+  </si>
+  <si>
+    <t>Porażka</t>
+  </si>
+  <si>
+    <t>Najbardziej popularny układ</t>
+  </si>
+  <si>
+    <t>Najbardziej popularne przedmioty</t>
+  </si>
+  <si>
+    <t>Początkowe przedmioty</t>
+  </si>
+  <si>
+    <t>Końcowy trinket</t>
+  </si>
+  <si>
+    <t>Końcowe buty</t>
+  </si>
+  <si>
+    <t>Skontaktuj się z nami</t>
+  </si>
+  <si>
+    <t>Ujawnenie prawne</t>
+  </si>
+  <si>
+    <t>Polityka prywatności</t>
+  </si>
+  <si>
+    <t>Pierwsza zniszczona wieża</t>
   </si>
 </sst>
 </file>
@@ -2550,13 +2823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,6 +2928,9 @@
       <c r="C2" s="4" t="s">
         <v>598</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2666,6 +2942,9 @@
       <c r="C3" s="4" t="s">
         <v>597</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2677,6 +2956,9 @@
       <c r="C4" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2688,6 +2970,9 @@
       <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2699,6 +2984,9 @@
       <c r="C6" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2710,6 +2998,9 @@
       <c r="C7" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2721,6 +3012,9 @@
       <c r="C8" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2732,6 +3026,9 @@
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2743,6 +3040,9 @@
       <c r="C10" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2754,6 +3054,9 @@
       <c r="C11" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2765,6 +3068,9 @@
       <c r="C12" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2776,6 +3082,9 @@
       <c r="C13" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="N13" s="4" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2787,6 +3096,9 @@
       <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="N14" s="4" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2798,6 +3110,9 @@
       <c r="C15" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="N15" s="4" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2809,8 +3124,11 @@
       <c r="C16" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>116</v>
       </c>
@@ -2820,8 +3138,11 @@
       <c r="C17" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>293</v>
       </c>
@@ -2831,8 +3152,11 @@
       <c r="C18" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>294</v>
       </c>
@@ -2842,8 +3166,11 @@
       <c r="C19" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>320</v>
       </c>
@@ -2853,8 +3180,11 @@
       <c r="C20" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>298</v>
       </c>
@@ -2864,8 +3194,11 @@
       <c r="C21" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>622</v>
       </c>
@@ -2875,8 +3208,11 @@
       <c r="C22" s="9" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N22" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>623</v>
       </c>
@@ -2886,8 +3222,11 @@
       <c r="C23" s="9" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N23" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>626</v>
       </c>
@@ -2897,8 +3236,11 @@
       <c r="C24" s="9" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>627</v>
       </c>
@@ -2908,8 +3250,11 @@
       <c r="C25" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>629</v>
       </c>
@@ -2919,8 +3264,11 @@
       <c r="C26" s="9" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>630</v>
       </c>
@@ -2930,8 +3278,11 @@
       <c r="C27" s="9" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>631</v>
       </c>
@@ -2941,8 +3292,11 @@
       <c r="C28" s="9" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>632</v>
       </c>
@@ -2952,8 +3306,11 @@
       <c r="C29" s="9" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>643</v>
       </c>
@@ -2963,8 +3320,11 @@
       <c r="C30" s="9" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N30" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>645</v>
       </c>
@@ -2974,8 +3334,11 @@
       <c r="C31" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -2985,8 +3348,11 @@
       <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N32" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -2996,8 +3362,11 @@
       <c r="C33" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N33" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
@@ -3007,8 +3376,11 @@
       <c r="C34" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -3018,8 +3390,11 @@
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
@@ -3029,8 +3404,11 @@
       <c r="C36" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N36" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>249</v>
       </c>
@@ -3040,8 +3418,11 @@
       <c r="C37" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N37" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>252</v>
       </c>
@@ -3051,8 +3432,11 @@
       <c r="C38" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>254</v>
       </c>
@@ -3062,8 +3446,11 @@
       <c r="C39" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>256</v>
       </c>
@@ -3073,8 +3460,11 @@
       <c r="C40" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N40" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>257</v>
       </c>
@@ -3084,8 +3474,11 @@
       <c r="C41" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N41" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>258</v>
       </c>
@@ -3095,8 +3488,11 @@
       <c r="C42" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N42" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>310</v>
       </c>
@@ -3106,8 +3502,11 @@
       <c r="C43" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N43" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>311</v>
       </c>
@@ -3117,8 +3516,11 @@
       <c r="C44" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N44" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>312</v>
       </c>
@@ -3128,8 +3530,11 @@
       <c r="C45" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>265</v>
       </c>
@@ -3139,8 +3544,11 @@
       <c r="C46" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N46" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>649</v>
       </c>
@@ -3150,8 +3558,11 @@
       <c r="C47" s="9" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N47" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>263</v>
       </c>
@@ -3161,8 +3572,11 @@
       <c r="C48" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N48" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>283</v>
       </c>
@@ -3172,8 +3586,11 @@
       <c r="C49" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N49" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>276</v>
       </c>
@@ -3183,8 +3600,11 @@
       <c r="C50" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N50" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>279</v>
       </c>
@@ -3194,8 +3614,11 @@
       <c r="C51" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N51" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>683</v>
       </c>
@@ -3205,8 +3628,11 @@
       <c r="C52" s="9" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N52" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>281</v>
       </c>
@@ -3216,8 +3642,11 @@
       <c r="C53" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>302</v>
       </c>
@@ -3227,8 +3656,11 @@
       <c r="C54" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N54" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>304</v>
       </c>
@@ -3238,8 +3670,11 @@
       <c r="C55" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N55" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>307</v>
       </c>
@@ -3249,48 +3684,66 @@
       <c r="C56" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N57" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N58" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N59" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N61" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>336</v>
       </c>
@@ -3300,1719 +3753,1854 @@
       <c r="C62" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N62" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="O64" s="5"/>
+        <v>690</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>606</v>
+        <v>339</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>609</v>
+        <v>340</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
+      <c r="N65" s="4" t="s">
+        <v>765</v>
+      </c>
       <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
+      <c r="N66" s="4" t="s">
+        <v>766</v>
+      </c>
       <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
+      <c r="N67" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="O67" s="5"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>618</v>
+        <v>607</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
+      <c r="N68" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>604</v>
+        <v>611</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
+      <c r="N69" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="N70" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="N71" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="N72" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="N73" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="N74" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="N75" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="N76" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q72" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S72" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L73" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P73" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q73" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L74" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P74" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S74" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="P76" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="S76" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="N77" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>537</v>
+        <v>155</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>659</v>
+        <v>7</v>
       </c>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M80" s="10"/>
       <c r="N80" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S80" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="S94" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q104" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S104" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="P106" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S106" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O108" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="P108" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q108" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S108" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O103" s="8" t="s">
+      <c r="O110" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P103" s="8" t="s">
+      <c r="P110" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q103" s="8" t="s">
+      <c r="Q110" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S103" s="7" t="s">
+      <c r="S110" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
+      <c r="N111" s="4" t="s">
+        <v>777</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="799">
   <si>
     <t>en_US</t>
   </si>
@@ -2361,6 +2361,69 @@
   </si>
   <si>
     <t>Pierwsza zniszczona wieża</t>
+  </si>
+  <si>
+    <t>nightMode</t>
+  </si>
+  <si>
+    <t>Night Mode</t>
+  </si>
+  <si>
+    <t>Nachtmodus</t>
+  </si>
+  <si>
+    <t>firstThreeItems</t>
+  </si>
+  <si>
+    <t>First Three Items</t>
+  </si>
+  <si>
+    <t>fourthItem</t>
+  </si>
+  <si>
+    <t>Fourth Item</t>
+  </si>
+  <si>
+    <t>fifthItem</t>
+  </si>
+  <si>
+    <t>Fifth Item</t>
+  </si>
+  <si>
+    <t>Vierter Gegenstand</t>
+  </si>
+  <si>
+    <t>Fünfter Gegenstand</t>
+  </si>
+  <si>
+    <t>Ersten Drei Gegenstände</t>
+  </si>
+  <si>
+    <t>firstTwoItems</t>
+  </si>
+  <si>
+    <t>First Two Items</t>
+  </si>
+  <si>
+    <t>Ersten Zwei Gegenstände</t>
+  </si>
+  <si>
+    <t>thirdItem</t>
+  </si>
+  <si>
+    <t>Third Item</t>
+  </si>
+  <si>
+    <t>Dritter Gegenstand</t>
+  </si>
+  <si>
+    <t>firstItem</t>
+  </si>
+  <si>
+    <t>First Item</t>
+  </si>
+  <si>
+    <t>Erster Gegenstand</t>
   </si>
 </sst>
 </file>
@@ -2823,13 +2886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,363 +3081,360 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>714</v>
+        <v>778</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>334</v>
+        <v>69</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>335</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>622</v>
+        <v>298</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>621</v>
+        <v>297</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>638</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>730</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
+        <v>645</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>75</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>75</v>
@@ -3382,2223 +3442,2321 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>737</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>651</v>
+        <v>265</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>268</v>
+        <v>649</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>684</v>
+        <v>279</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>282</v>
+        <v>683</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>303</v>
+        <v>754</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>755</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>328</v>
+        <v>308</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>689</v>
+        <v>336</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="N65" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="N66" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="N67" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>610</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="N68" s="4" t="s">
-        <v>767</v>
+        <v>609</v>
       </c>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="N69" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>698</v>
+        <v>608</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="N70" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="N71" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="N72" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="N73" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="N74" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>618</v>
+        <v>706</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="N75" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>604</v>
+        <v>796</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>798</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="N82" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="N83" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="O76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="O77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P78" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q78" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S78" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P79" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q79" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L80" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P80" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q80" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S80" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P81" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q81" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q82" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S82" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="P83" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q83" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="L84" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="P84" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S84" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>537</v>
+        <v>155</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>659</v>
+        <v>7</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q90" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="S94" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q110" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="S110" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="P112" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q112" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S112" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L114" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="P114" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q114" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="S114" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O116" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P116" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q116" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S116" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="O117" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="P117" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q110" s="8" t="s">
+      <c r="Q117" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S110" s="7" t="s">
+      <c r="S117" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="N111" s="4" t="s">
+      <c r="N118" s="4" t="s">
         <v>777</v>
       </c>
     </row>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$127</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="825">
   <si>
     <t>en_US</t>
   </si>
@@ -2424,6 +2424,84 @@
   </si>
   <si>
     <t>Erster Gegenstand</t>
+  </si>
+  <si>
+    <t>excludeRegions</t>
+  </si>
+  <si>
+    <t>Exclude regions</t>
+  </si>
+  <si>
+    <t>Regionen ausschließen</t>
+  </si>
+  <si>
+    <t>regionEuropeWest</t>
+  </si>
+  <si>
+    <t>regionKorea</t>
+  </si>
+  <si>
+    <t>regionNorthAmerica</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Nordamerika</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Europe West</t>
+  </si>
+  <si>
+    <t>Westeuropa</t>
+  </si>
+  <si>
+    <t>playedBy</t>
+  </si>
+  <si>
+    <t>Played By</t>
+  </si>
+  <si>
+    <t>Gespielt Von</t>
+  </si>
+  <si>
+    <t>starterTrinket</t>
+  </si>
+  <si>
+    <t>Starter Trinket</t>
+  </si>
+  <si>
+    <t>Starttrinket</t>
+  </si>
+  <si>
+    <t>goToMatch</t>
+  </si>
+  <si>
+    <t>Go to Match</t>
+  </si>
+  <si>
+    <t>Gehe zu Match</t>
+  </si>
+  <si>
+    <t>noFeaturedMatchFoundWithUsedCriterias</t>
+  </si>
+  <si>
+    <t>No Featured Match found with the used criterias!</t>
+  </si>
+  <si>
+    <t>Keine Ausgewähltes Match mit den genutzen Kriterien gefunden!</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Ziel</t>
   </si>
 </sst>
 </file>
@@ -2886,13 +2964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U118"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,1008 +3170,981 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>714</v>
+        <v>799</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>715</v>
+        <v>802</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>716</v>
+        <v>803</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>717</v>
+        <v>804</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>300</v>
+        <v>819</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>299</v>
+        <v>118</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>622</v>
+        <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>621</v>
+        <v>117</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>625</v>
+        <v>293</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>640</v>
+        <v>294</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>639</v>
+        <v>320</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>637</v>
+        <v>298</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>635</v>
+        <v>622</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>734</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>630</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>636</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>631</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>642</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>75</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>632</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>634</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>75</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>643</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>645</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>740</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>741</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>744</v>
+        <v>816</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>651</v>
+        <v>257</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>750</v>
+        <v>810</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>684</v>
+        <v>312</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>303</v>
+        <v>649</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>303</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>328</v>
+        <v>277</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>329</v>
+        <v>280</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>330</v>
+        <v>683</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>332</v>
+        <v>282</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>331</v>
+        <v>303</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>761</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>689</v>
+        <v>307</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>692</v>
+        <v>323</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+        <v>329</v>
+      </c>
       <c r="N66" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O66" s="5"/>
+        <v>758</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>330</v>
+      </c>
       <c r="N67" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="O67" s="5"/>
+        <v>759</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>606</v>
+        <v>325</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+        <v>332</v>
+      </c>
       <c r="N68" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O68" s="5"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>607</v>
+        <v>326</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+        <v>331</v>
+      </c>
       <c r="N69" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="O69" s="5"/>
+        <v>761</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>608</v>
+        <v>336</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="N70" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="O70" s="5"/>
+        <v>762</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+        <v>689</v>
+      </c>
       <c r="N71" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="O71" s="5"/>
+        <v>763</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+        <v>692</v>
+      </c>
       <c r="N72" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="O72" s="5"/>
+        <v>764</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>695</v>
+        <v>339</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="N73" s="4" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>704</v>
+        <v>612</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="N74" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="O74" s="5"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>706</v>
+        <v>606</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>707</v>
+        <v>609</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="N75" s="4" t="s">
-        <v>773</v>
+        <v>609</v>
       </c>
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>797</v>
+        <v>607</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>798</v>
+        <v>615</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
+      <c r="N76" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>791</v>
+        <v>608</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>792</v>
+        <v>616</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
+      <c r="N77" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>781</v>
+        <v>696</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>782</v>
+        <v>698</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
+      <c r="N78" s="4" t="s">
+        <v>769</v>
+      </c>
       <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>793</v>
+        <v>697</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>794</v>
+        <v>699</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
+      <c r="N79" s="4" t="s">
+        <v>770</v>
+      </c>
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -4101,1667 +4152,1802 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>788</v>
+        <v>695</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
+      <c r="N81" s="4" t="s">
+        <v>771</v>
+      </c>
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>617</v>
+        <v>813</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>618</v>
+        <v>814</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>619</v>
+        <v>815</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="N82" s="4" t="s">
-        <v>774</v>
-      </c>
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>604</v>
+        <v>702</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>704</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="N84" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="N91" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="N92" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="O84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K85" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L85" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P85" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q85" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L86" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q86" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K87" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L87" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P87" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L88" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P88" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q88" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S88" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L89" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P89" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q89" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S89" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="P90" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q90" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="S90" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="P91" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q91" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S91" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="K92" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="P92" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q92" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S92" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="O93" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="P93" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q93" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="S93" s="7" t="s">
-        <v>351</v>
-      </c>
+      <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>539</v>
+        <v>155</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="S94" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>505</v>
+        <v>7</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>571</v>
+        <v>7</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>656</v>
+        <v>7</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="S117" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="O118" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="P118" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q118" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="S118" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O120" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="P120" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q120" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S120" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O122" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="P122" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q122" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S122" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O123" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="P123" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O124" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="P124" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q124" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S124" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P125" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S125" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O117" s="8" t="s">
+      <c r="O126" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P117" s="8" t="s">
+      <c r="P126" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q117" s="8" t="s">
+      <c r="Q126" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S117" s="7" t="s">
+      <c r="S126" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="N118" s="4" t="s">
+      <c r="N127" s="4" t="s">
         <v>777</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:U127"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="840">
   <si>
     <t>en_US</t>
   </si>
@@ -2502,6 +2502,51 @@
   </si>
   <si>
     <t>Ziel</t>
+  </si>
+  <si>
+    <t>currentlyPlayedMatch</t>
+  </si>
+  <si>
+    <t>currentlyPlayedMatches</t>
+  </si>
+  <si>
+    <t>Currently Played Match</t>
+  </si>
+  <si>
+    <t>Currently Played Matches</t>
+  </si>
+  <si>
+    <t>Aktuell gespieltes Match</t>
+  </si>
+  <si>
+    <t>Aktuell gespielte Matches</t>
+  </si>
+  <si>
+    <t>notStarted</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>nicht gestartet</t>
+  </si>
+  <si>
+    <t>spectate</t>
+  </si>
+  <si>
+    <t>Spectate</t>
+  </si>
+  <si>
+    <t>Zuschauen</t>
+  </si>
+  <si>
+    <t>currentlyStreamedMatch</t>
+  </si>
+  <si>
+    <t>Currently Streamed Match</t>
+  </si>
+  <si>
+    <t>Aktuell gestreamtes Match</t>
   </si>
 </sst>
 </file>
@@ -2964,13 +3009,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,1737 +3148,1552 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>710</v>
+        <v>837</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>711</v>
+        <v>825</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>712</v>
+        <v>826</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>780</v>
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>801</v>
+        <v>286</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>809</v>
+        <v>288</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>714</v>
+        <v>802</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>715</v>
+        <v>803</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>716</v>
+        <v>804</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>821</v>
+        <v>290</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>819</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>320</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>322</v>
+        <v>119</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>622</v>
+        <v>294</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>621</v>
+        <v>295</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>625</v>
+        <v>320</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>640</v>
+        <v>298</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>638</v>
+        <v>622</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>732</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>632</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>634</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>643</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>75</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>645</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>75</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>738</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>818</v>
+        <v>77</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>741</v>
+        <v>831</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>742</v>
+        <v>816</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>812</v>
+        <v>254</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>745</v>
+        <v>810</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>651</v>
+        <v>310</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>280</v>
+        <v>649</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>684</v>
+        <v>263</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>303</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>309</v>
+        <v>683</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>329</v>
+        <v>303</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>758</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>759</v>
+        <v>834</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>332</v>
+        <v>305</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>331</v>
+        <v>308</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>689</v>
+        <v>327</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>692</v>
+        <v>324</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+        <v>332</v>
+      </c>
       <c r="N73" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O73" s="5"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>612</v>
+        <v>326</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+        <v>331</v>
+      </c>
       <c r="N74" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="O74" s="5"/>
+        <v>761</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>606</v>
+        <v>336</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="N75" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O75" s="5"/>
+        <v>762</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>610</v>
+        <v>687</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>688</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+        <v>689</v>
+      </c>
       <c r="N76" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="O76" s="5"/>
+        <v>763</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>611</v>
+        <v>690</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>691</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+        <v>692</v>
+      </c>
       <c r="N77" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="O77" s="5"/>
+        <v>764</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>700</v>
+        <v>339</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="N78" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>701</v>
+        <v>612</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="N79" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>823</v>
+        <v>606</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>824</v>
+        <v>609</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
+      <c r="N80" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>694</v>
+        <v>607</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>695</v>
+        <v>615</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="N81" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>814</v>
+        <v>608</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>815</v>
+        <v>616</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
+      <c r="N82" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>790</v>
+        <v>693</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>791</v>
+        <v>694</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>792</v>
+        <v>695</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
+      <c r="N86" s="4" t="s">
+        <v>771</v>
+      </c>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>794</v>
+        <v>703</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>795</v>
+        <v>704</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
+      <c r="N88" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>783</v>
+        <v>705</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
+      <c r="N89" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>619</v>
+        <v>792</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="N91" s="4" t="s">
-        <v>774</v>
-      </c>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>604</v>
+        <v>781</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="N96" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="N97" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="O92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="O93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O94" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P94" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q94" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S94" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O95" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P95" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q95" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S95" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L96" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O96" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P96" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q96" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S96" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L97" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P97" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q97" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L98" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O98" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P98" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q98" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S98" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>567</v>
+        <v>7</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>657</v>
+        <v>7</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>444</v>
+        <v>7</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>130</v>
@@ -4854,7 +4714,7 @@
         <v>412</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>656</v>
@@ -4878,1076 +4738,1316 @@
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P121" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O126" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="P126" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q126" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S126" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O128" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="P128" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q128" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="S128" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O129" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="P129" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O130" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P130" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q130" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O126" s="8" t="s">
+      <c r="O131" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P126" s="8" t="s">
+      <c r="P131" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q126" s="8" t="s">
+      <c r="Q131" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S126" s="7" t="s">
+      <c r="S131" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="N127" s="4" t="s">
+      <c r="N132" s="4" t="s">
         <v>777</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U127"/>
+  <autoFilter ref="A1:U132"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="854">
   <si>
     <t>en_US</t>
   </si>
@@ -2547,12 +2547,54 @@
   </si>
   <si>
     <t>Aktuell gestreamtes Match</t>
+  </si>
+  <si>
+    <t>Builds {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} {position} builds {patch}  | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.title.builds</t>
+  </si>
+  <si>
+    <t>meta.head.description.builds</t>
+  </si>
+  <si>
+    <t>meta.head.title.pro.builds</t>
+  </si>
+  <si>
+    <t>meta.head.description.pro.builds</t>
+  </si>
+  <si>
+    <t>Find recent Builds and Guides from Pro gamers for patch {patch}, which will improve your gameplay.</t>
+  </si>
+  <si>
+    <t>Find Builds of {nickName} ({firstName} {lastName}) for patch {patch}. {nickName} plays on lane {position}.</t>
+  </si>
+  <si>
+    <t>{nickName} Builds</t>
+  </si>
+  <si>
+    <t>header.pro.builds</t>
+  </si>
+  <si>
+    <t>header.champion.builds</t>
+  </si>
+  <si>
+    <t>{championName} Builds</t>
+  </si>
+  <si>
+    <t>{championName} {position} builds {patch}  | LoL VVV</t>
+  </si>
+  <si>
+    <t>Find Builds of {championName} at {positions} lane for patch {patch}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3008,14 +3050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,8 +6088,72 @@
         <v>777</v>
       </c>
     </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U132"/>
+  <autoFilter ref="A1:U132" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$137</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="867">
   <si>
     <t>en_US</t>
   </si>
@@ -2522,15 +2522,6 @@
     <t>Aktuell gespielte Matches</t>
   </si>
   <si>
-    <t>notStarted</t>
-  </si>
-  <si>
-    <t>not started</t>
-  </si>
-  <si>
-    <t>nicht gestartet</t>
-  </si>
-  <si>
     <t>spectate</t>
   </si>
   <si>
@@ -2547,6 +2538,96 @@
   </si>
   <si>
     <t>Aktuell gestreamtes Match</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>streamChat</t>
+  </si>
+  <si>
+    <t>Stream Chat</t>
+  </si>
+  <si>
+    <t>startingSoon</t>
+  </si>
+  <si>
+    <t>staring soon</t>
+  </si>
+  <si>
+    <t>startet gleich</t>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Entwickeln</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Verkauf</t>
+  </si>
+  <si>
+    <t>Evolve Skill Order</t>
+  </si>
+  <si>
+    <t>evolveSkillOrder</t>
+  </si>
+  <si>
+    <t>Entwicklung-Skillreihenfolge</t>
+  </si>
+  <si>
+    <t>meta.head.title.builds</t>
+  </si>
+  <si>
+    <t>Builds {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.description.builds</t>
+  </si>
+  <si>
+    <t>Find recent Builds and Guides from Pro gamers for patch {patch}, which will improve your gameplay.</t>
+  </si>
+  <si>
+    <t>meta.head.title.pro.builds</t>
+  </si>
+  <si>
+    <t>{nickName} {position} builds {patch}  | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.description.pro.builds</t>
+  </si>
+  <si>
+    <t>Find Builds of {nickName} ({firstName} {lastName}) for patch {patch}. {nickName} plays on lane {position}.</t>
+  </si>
+  <si>
+    <t>{championName} {position} builds {patch}  | LoL VVV</t>
+  </si>
+  <si>
+    <t>Find Builds of {championName} at {positions} lane for patch {patch}</t>
+  </si>
+  <si>
+    <t>header.pro.builds</t>
+  </si>
+  <si>
+    <t>{nickName} Builds</t>
+  </si>
+  <si>
+    <t>header.champion.builds</t>
+  </si>
+  <si>
+    <t>{championName} Builds</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2694,6 +2775,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -3009,13 +3093,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:U146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,13 +3232,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3195,1135 +3279,1117 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>711</v>
+        <v>837</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>780</v>
+        <v>288</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>714</v>
+        <v>803</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>715</v>
+        <v>804</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>821</v>
+        <v>108</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>819</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>622</v>
+        <v>320</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>621</v>
+        <v>321</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>625</v>
+        <v>298</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>640</v>
+        <v>622</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>731</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>86</v>
+        <v>643</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>76</v>
+        <v>645</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>75</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>75</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>737</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>738</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>833</v>
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>818</v>
+        <v>82</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>739</v>
+        <v>841</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>740</v>
+        <v>816</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>812</v>
+        <v>257</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>746</v>
+        <v>810</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>651</v>
+        <v>312</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>285</v>
+        <v>649</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N72" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N74" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="N78" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O78" s="5"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="N79" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="O79" s="5"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="N80" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>607</v>
+        <v>339</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>615</v>
+        <v>340</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="N81" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="N82" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>698</v>
+        <v>606</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>700</v>
+        <v>609</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>769</v>
+        <v>609</v>
       </c>
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>699</v>
+        <v>607</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>701</v>
+        <v>615</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>823</v>
+        <v>608</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>824</v>
+        <v>616</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
+      <c r="N85" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="N86" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>814</v>
+        <v>699</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>815</v>
+        <v>701</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
+      <c r="N87" s="4" t="s">
+        <v>770</v>
+      </c>
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>702</v>
+        <v>822</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>704</v>
+        <v>824</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="N88" s="4" t="s">
-        <v>772</v>
-      </c>
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>705</v>
+        <v>847</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>706</v>
+        <v>848</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>707</v>
+        <v>849</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="N89" s="4" t="s">
-        <v>773</v>
-      </c>
       <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4331,27 +4397,30 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>790</v>
+        <v>693</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>791</v>
+        <v>694</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>792</v>
+        <v>695</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
+      <c r="N91" s="4" t="s">
+        <v>771</v>
+      </c>
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -4359,41 +4428,47 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>794</v>
+        <v>703</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>795</v>
+        <v>704</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
+      <c r="N93" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>783</v>
+        <v>705</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
+      <c r="N94" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -4401,539 +4476,369 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>619</v>
+        <v>792</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="N96" s="4" t="s">
-        <v>774</v>
-      </c>
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>604</v>
+        <v>781</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="N97" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="N101" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="N102" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N103" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="O98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L99" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P99" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q99" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L100" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O100" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P100" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q100" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S100" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O101" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P101" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q101" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S101" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L102" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P102" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q102" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S102" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L103" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O103" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P103" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q103" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S103" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>567</v>
+        <v>7</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>657</v>
+        <v>7</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>444</v>
+        <v>7</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>130</v>
@@ -4954,7 +4859,7 @@
         <v>412</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>656</v>
@@ -4978,1076 +4883,1384 @@
     </row>
     <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P121" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M127" s="10"/>
       <c r="N127" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="M129" s="10"/>
       <c r="N129" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K130" s="10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K131" s="10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O132" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="P132" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q132" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="S132" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O133" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="P133" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O134" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="P134" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q134" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S134" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P135" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q135" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S135" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O131" s="8" t="s">
+      <c r="O136" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P131" s="8" t="s">
+      <c r="P136" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q131" s="8" t="s">
+      <c r="Q136" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S131" s="7" t="s">
+      <c r="S136" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="N132" s="4" t="s">
+      <c r="N137" s="4" t="s">
         <v>777</v>
       </c>
     </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U132"/>
+  <autoFilter ref="A1:U137"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$147</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="874">
   <si>
     <t>en_US</t>
   </si>
@@ -2117,21 +2117,12 @@
     <t>Startgegenstände</t>
   </si>
   <si>
-    <t>mostPopularSetup</t>
-  </si>
-  <si>
     <t>mostPopularItems</t>
   </si>
   <si>
-    <t>Most Popular Setup</t>
-  </si>
-  <si>
     <t>Most Popular Items</t>
   </si>
   <si>
-    <t>Meistgenutztes Setup</t>
-  </si>
-  <si>
     <t>Meistgenutzte Gegenstände</t>
   </si>
   <si>
@@ -2597,27 +2588,12 @@
     <t>meta.head.description.builds</t>
   </si>
   <si>
-    <t>Find recent Builds and Guides from Pro gamers for patch {patch}, which will improve your gameplay.</t>
-  </si>
-  <si>
     <t>meta.head.title.pro.builds</t>
   </si>
   <si>
-    <t>{nickName} {position} builds {patch}  | LoL VVV</t>
-  </si>
-  <si>
     <t>meta.head.description.pro.builds</t>
   </si>
   <si>
-    <t>Find Builds of {nickName} ({firstName} {lastName}) for patch {patch}. {nickName} plays on lane {position}.</t>
-  </si>
-  <si>
-    <t>{championName} {position} builds {patch}  | LoL VVV</t>
-  </si>
-  <si>
-    <t>Find Builds of {championName} at {positions} lane for patch {patch}</t>
-  </si>
-  <si>
     <t>header.pro.builds</t>
   </si>
   <si>
@@ -2628,6 +2604,51 @@
   </si>
   <si>
     <t>{championName} Builds</t>
+  </si>
+  <si>
+    <t>meta.head.title.champion.builds</t>
+  </si>
+  <si>
+    <t>meta.head.description.champion.builds</t>
+  </si>
+  <si>
+    <t>Latest Builds of {nickName} ({firstName} {lastName}) for patch {patch}. {nickName} is a {position} laner.</t>
+  </si>
+  <si>
+    <t>{name} {positions} Builds {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Latest Builds of {name} ({title}) for patch {patch}. {name} is played on {positions} lane.</t>
+  </si>
+  <si>
+    <t>{nickName} {position} Builds {patch}  | LoL VVV</t>
+  </si>
+  <si>
+    <t>Latest Builds and Guides from Pro gamers for patch {patch}, which will improve your gameplay. Various filters will support you in finding the right Build.</t>
+  </si>
+  <si>
+    <t>mostPopularBuilds</t>
+  </si>
+  <si>
+    <t>Most Popular Builds</t>
+  </si>
+  <si>
+    <t>Meistgenutztes Builds</t>
+  </si>
+  <si>
+    <t>menu.secondary.builds</t>
+  </si>
+  <si>
+    <t>menu.secondary.featuredBuild</t>
+  </si>
+  <si>
+    <t>Builds</t>
+  </si>
+  <si>
+    <t>Featured Build</t>
+  </si>
+  <si>
+    <t>Ausgewähltes Build</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2758,12 +2779,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2778,6 +2810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -3093,13 +3126,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U146"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3232,7 @@
         <v>598</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3227,40 +3260,40 @@
         <v>87</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3274,18 +3307,18 @@
         <v>122</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3299,7 +3332,7 @@
         <v>125</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -3313,7 +3346,7 @@
         <v>287</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -3327,73 +3360,73 @@
         <v>289</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3407,7 +3440,7 @@
         <v>69</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3421,7 +3454,7 @@
         <v>334</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3435,7 +3468,7 @@
         <v>107</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3449,7 +3482,7 @@
         <v>292</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3463,7 +3496,7 @@
         <v>112</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3477,21 +3510,21 @@
         <v>113</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3505,7 +3538,7 @@
         <v>85</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3519,7 +3552,7 @@
         <v>118</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3533,7 +3566,7 @@
         <v>119</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3547,7 +3580,7 @@
         <v>301</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3561,7 +3594,7 @@
         <v>300</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3575,7 +3608,7 @@
         <v>322</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3589,7 +3622,7 @@
         <v>299</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,7 +3636,7 @@
         <v>621</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3617,7 +3650,7 @@
         <v>625</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3631,7 +3664,7 @@
         <v>640</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3659,7 +3692,7 @@
         <v>637</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3673,7 +3706,7 @@
         <v>636</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,7 +3720,7 @@
         <v>642</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3701,7 +3734,7 @@
         <v>634</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3715,7 +3748,7 @@
         <v>647</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3729,7 +3762,7 @@
         <v>648</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3743,7 +3776,7 @@
         <v>86</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3785,7 +3818,7 @@
         <v>81</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3799,29 +3832,29 @@
         <v>84</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3835,7 +3868,7 @@
         <v>251</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3849,7 +3882,7 @@
         <v>342</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3863,7 +3896,7 @@
         <v>255</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3877,7 +3910,7 @@
         <v>319</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3891,7 +3924,7 @@
         <v>262</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3905,18 +3938,18 @@
         <v>260</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3930,7 +3963,7 @@
         <v>318</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3944,7 +3977,7 @@
         <v>317</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3958,7 +3991,7 @@
         <v>316</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3972,7 +4005,7 @@
         <v>267</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3986,7 +4019,7 @@
         <v>651</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4000,7 +4033,7 @@
         <v>268</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4014,18 +4047,18 @@
         <v>285</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4039,7 +4072,7 @@
         <v>278</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4053,7 +4086,7 @@
         <v>280</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4067,7 +4100,7 @@
         <v>684</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4081,7 +4114,7 @@
         <v>282</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4100,13 +4133,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4120,7 +4153,7 @@
         <v>306</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4134,7 +4167,7 @@
         <v>309</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4145,7 +4178,7 @@
         <v>328</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4156,7 +4189,7 @@
         <v>329</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4167,7 +4200,7 @@
         <v>330</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4178,7 +4211,7 @@
         <v>332</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4189,7 +4222,7 @@
         <v>331</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4203,7 +4236,7 @@
         <v>338</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4217,7 +4250,7 @@
         <v>689</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4231,7 +4264,7 @@
         <v>692</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -4247,7 +4280,7 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="N81" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="O81" s="5"/>
     </row>
@@ -4264,7 +4297,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="N82" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="O82" s="5"/>
     </row>
@@ -4298,7 +4331,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="O84" s="5"/>
     </row>
@@ -4315,53 +4348,53 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="N85" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>696</v>
+        <v>866</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>700</v>
+        <v>868</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="N86" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="C87" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="N87" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -4369,13 +4402,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -4383,13 +4416,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4408,19 +4441,19 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="N91" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -4428,47 +4461,47 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="N93" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="N94" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -4476,13 +4509,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -4490,13 +4523,13 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -4504,13 +4537,13 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -4518,13 +4551,13 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>784</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>787</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -4532,13 +4565,13 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>785</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>788</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -4557,7 +4590,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="N101" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O101" s="5"/>
     </row>
@@ -4574,7 +4607,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="N102" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O102" s="5"/>
     </row>
@@ -4589,7 +4622,7 @@
         <v>605</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O103" s="5"/>
     </row>
@@ -6188,79 +6221,103 @@
         <v>274</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146"/>
+        <v>858</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>873</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U137"/>
+  <autoFilter ref="A1:U147"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$159</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="898">
   <si>
     <t>en_US</t>
   </si>
@@ -2582,9 +2582,6 @@
     <t>meta.head.title.builds</t>
   </si>
   <si>
-    <t>Builds {patch} | LoL VVV</t>
-  </si>
-  <si>
     <t>meta.head.description.builds</t>
   </si>
   <si>
@@ -2603,30 +2600,12 @@
     <t>header.champion.builds</t>
   </si>
   <si>
-    <t>{championName} Builds</t>
-  </si>
-  <si>
     <t>meta.head.title.champion.builds</t>
   </si>
   <si>
     <t>meta.head.description.champion.builds</t>
   </si>
   <si>
-    <t>Latest Builds of {nickName} ({firstName} {lastName}) for patch {patch}. {nickName} is a {position} laner.</t>
-  </si>
-  <si>
-    <t>{name} {positions} Builds {patch} | LoL VVV</t>
-  </si>
-  <si>
-    <t>Latest Builds of {name} ({title}) for patch {patch}. {name} is played on {positions} lane.</t>
-  </si>
-  <si>
-    <t>{nickName} {position} Builds {patch}  | LoL VVV</t>
-  </si>
-  <si>
-    <t>Latest Builds and Guides from Pro gamers for patch {patch}, which will improve your gameplay. Various filters will support you in finding the right Build.</t>
-  </si>
-  <si>
     <t>mostPopularBuilds</t>
   </si>
   <si>
@@ -2649,12 +2628,105 @@
   </si>
   <si>
     <t>Ausgewähltes Build</t>
+  </si>
+  <si>
+    <t>meta.head.title.match</t>
+  </si>
+  <si>
+    <t>meta.head.description.match</t>
+  </si>
+  <si>
+    <t>meta.head.title.champion.featuredBuild</t>
+  </si>
+  <si>
+    <t>meta.head.description.champion.featuredBuild</t>
+  </si>
+  <si>
+    <t>meta.head.title.champions</t>
+  </si>
+  <si>
+    <t>meta.head.description.champions</t>
+  </si>
+  <si>
+    <t>meta.head.title.pros</t>
+  </si>
+  <si>
+    <t>Pros {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.description.pros</t>
+  </si>
+  <si>
+    <t>Champions {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.title.frontpage</t>
+  </si>
+  <si>
+    <t>LoL VVV: Veni Vidi Vici</t>
+  </si>
+  <si>
+    <t>meta.head.description.frontpage</t>
+  </si>
+  <si>
+    <t>{championName} Builds {patch}</t>
+  </si>
+  <si>
+    <t>header.champion.featuredBuild</t>
+  </si>
+  <si>
+    <t>{championName} Build {patch} {position}</t>
+  </si>
+  <si>
+    <t>{championName} Builds {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders, Runes and many more on Patch {patch} for all League of Legends Champions on all positions.</t>
+  </si>
+  <si>
+    <t>Pro Builds {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Pro Match on Patch {patch} {platform} {gameId} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Pro Match played by Pros {prosList} on Patch {patch} on platform {platform}.</t>
+  </si>
+  <si>
+    <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders and many more on Patch {patch} of the best Pros of League of Legends</t>
+  </si>
+  <si>
+    <t>Best Builds, Guides, Statistics, Skill and Item Buy Orders and many more from Pro players for Patch {patch}, which will improve your gameplay.</t>
+  </si>
+  <si>
+    <t>{nickName} Builds {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Best Builds of {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
+  </si>
+  <si>
+    <t>We provide the latest and best Builds, Guides, Skill and Item Buy Orders, Runes and many more for all Champions from the best League of Legends Pros in the world.</t>
+  </si>
+  <si>
+    <t>{championName} Build on {position} vs {opponentName} by Pro {nickName} on Patch {patch}. Skill and Item Buy Orders, Runes and much more provided.</t>
+  </si>
+  <si>
+    <t>{championName} Build {patch} {position} vs {opponentName} by {nickName} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Best Builds of {championName} for Patch {patch}. {championName} is mostly played on {positions} position.</t>
+  </si>
+  <si>
+    <t>header.champion.searchFeaturedBuild</t>
+  </si>
+  <si>
+    <t>Search Build for {championName} …</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2795,7 +2867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2807,10 +2879,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -3125,14 +3199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,13 +4428,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -6229,95 +6303,193 @@
         <v>850</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>856</v>
-      </c>
       <c r="C144" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B152" s="9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="B147" s="9" t="s">
+      <c r="B154" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="B155" s="9" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>873</v>
       </c>
+      <c r="B156" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>892</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U147"/>
+  <autoFilter ref="A1:U159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FE54A-CEC5-41A2-9849-82AD6B01EE84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="902">
   <si>
     <t>en_US</t>
   </si>
@@ -2721,6 +2722,18 @@
   </si>
   <si>
     <t>Search Build for {championName} …</t>
+  </si>
+  <si>
+    <t>meta.head.title.live</t>
+  </si>
+  <si>
+    <t>Watch the Pros Live | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.description.live</t>
+  </si>
+  <si>
+    <t>Learn from the best Pro players of the world by watching them playing League of Legends Live.</t>
   </si>
 </sst>
 </file>
@@ -3200,13 +3213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U159"/>
+  <dimension ref="A1:U161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,6 +6501,22 @@
         <v>892</v>
       </c>
     </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>901</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="D1:U1">

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FE54A-CEC5-41A2-9849-82AD6B01EE84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FC648275-A8ED-475A-891C-CCE3E7412A8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$168</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="917">
   <si>
     <t>en_US</t>
   </si>
@@ -2532,9 +2532,6 @@
     <t>Aktuell gestreamtes Match</t>
   </si>
   <si>
-    <t>stream</t>
-  </si>
-  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -2694,18 +2691,12 @@
     <t>Pro Match played by Pros {prosList} on Patch {patch} on platform {platform}.</t>
   </si>
   <si>
-    <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders and many more on Patch {patch} of the best Pros of League of Legends</t>
-  </si>
-  <si>
     <t>Best Builds, Guides, Statistics, Skill and Item Buy Orders and many more from Pro players for Patch {patch}, which will improve your gameplay.</t>
   </si>
   <si>
     <t>{nickName} Builds {position} | LoL VVV</t>
   </si>
   <si>
-    <t>Best Builds of {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
-  </si>
-  <si>
     <t>We provide the latest and best Builds, Guides, Skill and Item Buy Orders, Runes and many more for all Champions from the best League of Legends Pros in the world.</t>
   </si>
   <si>
@@ -2715,9 +2706,6 @@
     <t>{championName} Build {patch} {position} vs {opponentName} by {nickName} | LoL VVV</t>
   </si>
   <si>
-    <t>Best Builds of {championName} for Patch {patch}. {championName} is mostly played on {positions} position.</t>
-  </si>
-  <si>
     <t>header.champion.searchFeaturedBuild</t>
   </si>
   <si>
@@ -2734,6 +2722,63 @@
   </si>
   <si>
     <t>Learn from the best Pro players of the world by watching them playing League of Legends Live.</t>
+  </si>
+  <si>
+    <t>{championName} Builds for Patch {patch} from professional LoL players. {championName} is mostly played on {positions} position. Use one of our many filters to find the perfect {championName} Build.</t>
+  </si>
+  <si>
+    <t>Best Builds of professional LoL player {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
+  </si>
+  <si>
+    <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders and many more on Patch {patch} of the best Pros of League of Legends.</t>
+  </si>
+  <si>
+    <t>header.champion.runes</t>
+  </si>
+  <si>
+    <t>{championName} Runes {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Runen {patch}</t>
+  </si>
+  <si>
+    <t>menu.secondary.runes</t>
+  </si>
+  <si>
+    <t>menu.secondary.statistics</t>
+  </si>
+  <si>
+    <t>Runes</t>
+  </si>
+  <si>
+    <t>Runen</t>
+  </si>
+  <si>
+    <t>champions.detail.overview.win</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>champions.detail.overview.loss</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>champions.detail.overview.pickRate</t>
+  </si>
+  <si>
+    <t>champions.detail.overview.banRate</t>
+  </si>
+  <si>
+    <t>Ban Rate</t>
+  </si>
+  <si>
+    <t>Pick Rate</t>
+  </si>
+  <si>
+    <t>button.stream</t>
   </si>
 </sst>
 </file>
@@ -3213,13 +3258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B161" sqref="B161"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,13 +3444,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>835</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3463,13 +3508,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>837</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -3924,13 +3969,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>839</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4139,13 +4184,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4441,13 +4486,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>860</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>861</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -4489,13 +4534,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>845</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>846</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -4503,13 +4548,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>842</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>843</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -6313,212 +6358,277 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>855</v>
-      </c>
       <c r="C144" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B146" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>882</v>
-      </c>
       <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="C147" s="9"/>
+      <c r="A147" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>864</v>
-      </c>
+      <c r="A148" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="C149" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>886</v>
-      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>868</v>
+      <c r="A151" s="12" t="s">
+        <v>904</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>887</v>
+        <v>906</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>869</v>
+      <c r="A152" s="12" t="s">
+        <v>905</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>894</v>
+        <v>315</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>875</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>901</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FC648275-A8ED-475A-891C-CCE3E7412A8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A082B278-6C36-4D28-A171-8A2267A11D11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$170</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="931">
   <si>
     <t>en_US</t>
   </si>
@@ -2544,9 +2544,6 @@
     <t>startingSoon</t>
   </si>
   <si>
-    <t>staring soon</t>
-  </si>
-  <si>
     <t>startet gleich</t>
   </si>
   <si>
@@ -2779,6 +2776,51 @@
   </si>
   <si>
     <t>button.stream</t>
+  </si>
+  <si>
+    <t>header.champion.statistics</t>
+  </si>
+  <si>
+    <t>{championName} Statistics {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Statistiken {patch}</t>
+  </si>
+  <si>
+    <t>noStatisticsFoundWithUsedCriterias</t>
+  </si>
+  <si>
+    <t>No Statistics found with the used criterias!</t>
+  </si>
+  <si>
+    <t>Keine Statistiken mit den genutzen Kriterien gefunden!</t>
+  </si>
+  <si>
+    <t>starting soon</t>
+  </si>
+  <si>
+    <t>meta.head.title.champion.statistics</t>
+  </si>
+  <si>
+    <t>meta.head.description.champion.statistics</t>
+  </si>
+  <si>
+    <t>meta.head.title.champion.runes</t>
+  </si>
+  <si>
+    <t>meta.head.description.champion.runes</t>
+  </si>
+  <si>
+    <t>{championName} Statistics {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statistiken {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Runes {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statistics for Patch {patch} based on professional matches. Check out the most used Items, Boots, Skill Orders, Runes, Spells and many more statistics.</t>
   </si>
 </sst>
 </file>
@@ -3258,13 +3300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,7 +3486,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>834</v>
@@ -3675,265 +3717,262 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>718</v>
+        <v>919</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>622</v>
+        <v>298</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>621</v>
+        <v>297</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>638</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>727</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>645</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>75</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>75</v>
@@ -3941,606 +3980,606 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>734</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>839</v>
+        <v>82</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>814</v>
+        <v>922</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>736</v>
+        <v>813</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>809</v>
+        <v>258</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>742</v>
+        <v>807</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>651</v>
+        <v>265</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>268</v>
+        <v>649</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>848</v>
+        <v>283</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>748</v>
+        <v>846</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>684</v>
+        <v>279</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>282</v>
+        <v>683</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>684</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>303</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>830</v>
+        <v>302</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>752</v>
+        <v>828</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>328</v>
+        <v>308</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>689</v>
+        <v>336</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+        <v>690</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>692</v>
+      </c>
       <c r="N81" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="O81" s="5"/>
+        <v>761</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>612</v>
+        <v>339</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>613</v>
+        <v>340</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>614</v>
+        <v>341</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="N82" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>609</v>
+        <v>763</v>
       </c>
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>764</v>
+        <v>609</v>
       </c>
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="N85" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>859</v>
+        <v>608</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>860</v>
+        <v>616</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="N86" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>696</v>
+        <v>857</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>697</v>
+        <v>858</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>698</v>
+        <v>859</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="N87" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>819</v>
+        <v>696</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>820</v>
+        <v>697</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>821</v>
+        <v>698</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
+      <c r="N88" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -4548,13 +4587,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4562,92 +4601,92 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>693</v>
+        <v>839</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>694</v>
+        <v>840</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>695</v>
+        <v>841</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="N91" s="4" t="s">
-        <v>768</v>
-      </c>
       <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>810</v>
+        <v>693</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>812</v>
+        <v>695</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
+      <c r="N92" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>699</v>
+        <v>810</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>700</v>
+        <v>811</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>701</v>
+        <v>812</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="N93" s="4" t="s">
-        <v>769</v>
-      </c>
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="N94" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>793</v>
+        <v>702</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>794</v>
+        <v>703</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>795</v>
+        <v>704</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
+      <c r="N95" s="4" t="s">
+        <v>770</v>
+      </c>
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -4655,13 +4694,13 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -4669,13 +4708,13 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -4683,13 +4722,13 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -4697,13 +4736,13 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -4711,1924 +4750,1986 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>617</v>
+        <v>782</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>618</v>
+        <v>783</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>619</v>
+        <v>785</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="N101" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>604</v>
+        <v>617</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>619</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="N102" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="N103" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="O103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L104" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O104" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P104" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q104" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S104" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>7</v>
+        <v>652</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>531</v>
+        <v>155</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>502</v>
+        <v>7</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>563</v>
+        <v>7</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>653</v>
+        <v>7</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K111" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q111" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q114" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q115" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q116" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q117" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q118" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P121" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q122" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q123" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M127" s="10"/>
       <c r="N127" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>493</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M129" s="10"/>
       <c r="N129" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K130" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K131" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P131" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S131" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K132" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P132" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S132" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M133" s="10"/>
       <c r="N133" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P133" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K134" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M134" s="10"/>
       <c r="N134" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S134" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M135" s="10"/>
       <c r="N135" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P135" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q135" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K136" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M136" s="10"/>
       <c r="N136" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="P136" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q136" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S136" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="K137" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O136" s="8" t="s">
+      <c r="O137" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="P136" s="8" t="s">
+      <c r="P137" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q136" s="8" t="s">
+      <c r="Q137" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S136" s="7" t="s">
+      <c r="S137" s="7" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N137" s="4" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>884</v>
+        <v>272</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>854</v>
+        <v>897</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="C145" s="9" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+      <c r="B147" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="B146" s="14" t="s">
-        <v>881</v>
-      </c>
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="C147" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="B150" s="14" t="s">
         <v>892</v>
       </c>
-      <c r="B148" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>865</v>
-      </c>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>906</v>
+        <v>860</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>862</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>907</v>
+        <v>862</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="C153" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="B161" s="9" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="B164" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="B163" s="9" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="B166" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="B165" s="9" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="B168" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="B166" s="9" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="B169" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="B170" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>914</v>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A082B278-6C36-4D28-A171-8A2267A11D11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E4E2A-CF81-4F5A-875A-163FBF047B66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$176</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="937">
   <si>
     <t>en_US</t>
   </si>
@@ -2664,18 +2664,12 @@
     <t>meta.head.description.frontpage</t>
   </si>
   <si>
-    <t>{championName} Builds {patch}</t>
-  </si>
-  <si>
     <t>header.champion.featuredBuild</t>
   </si>
   <si>
     <t>{championName} Build {patch} {position}</t>
   </si>
   <si>
-    <t>{championName} Builds {patch} {positions} | LoL VVV</t>
-  </si>
-  <si>
     <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders, Runes and many more on Patch {patch} for all League of Legends Champions on all positions.</t>
   </si>
   <si>
@@ -2721,24 +2715,12 @@
     <t>Learn from the best Pro players of the world by watching them playing League of Legends Live.</t>
   </si>
   <si>
-    <t>{championName} Builds for Patch {patch} from professional LoL players. {championName} is mostly played on {positions} position. Use one of our many filters to find the perfect {championName} Build.</t>
-  </si>
-  <si>
-    <t>Best Builds of professional LoL player {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
-  </si>
-  <si>
     <t>Find Builds, Guides, Statistics, Skill and Item Buy Orders and many more on Patch {patch} of the best Pros of League of Legends.</t>
   </si>
   <si>
     <t>header.champion.runes</t>
   </si>
   <si>
-    <t>{championName} Runes {patch}</t>
-  </si>
-  <si>
-    <t>{championName} Runen {patch}</t>
-  </si>
-  <si>
     <t>menu.secondary.runes</t>
   </si>
   <si>
@@ -2781,12 +2763,6 @@
     <t>header.champion.statistics</t>
   </si>
   <si>
-    <t>{championName} Statistics {patch}</t>
-  </si>
-  <si>
-    <t>{championName} Statistiken {patch}</t>
-  </si>
-  <si>
     <t>noStatisticsFoundWithUsedCriterias</t>
   </si>
   <si>
@@ -2811,16 +2787,58 @@
     <t>meta.head.description.champion.runes</t>
   </si>
   <si>
-    <t>{championName} Statistics {patch} | LoL VVV</t>
-  </si>
-  <si>
-    <t>{championName} Statistiken {patch} | LoL VVV</t>
-  </si>
-  <si>
-    <t>{championName} Runes {patch} | LoL VVV</t>
-  </si>
-  <si>
     <t>{championName} Statistics for Patch {patch} based on professional matches. Check out the most used Items, Boots, Skill Orders, Runes, Spells and many more statistics.</t>
+  </si>
+  <si>
+    <t>Best Builds of Pro player {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Pro Builds</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Runes</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Statistics</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Runen</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Statistiken</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Statistics | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Runes | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Statistiken | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Runen | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} {patch} Builds | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.title.champion.builds.position</t>
+  </si>
+  <si>
+    <t>{championName} {position} {patch} Builds | LoL VVV</t>
+  </si>
+  <si>
+    <t>meta.head.description.champion.builds.position</t>
+  </si>
+  <si>
+    <t>{championName} {position} Builds for Patch {patch} from Pro players. {picks} Builds are available. {championName} {position} has a pick rate of {pickRate}% and ban rate of {banRate}%.</t>
+  </si>
+  <si>
+    <t>{championName} Builds for Patch {patch} from Pro players. {championName} is mostly played on {positions} position and has a pick rate of {pickRate}% and ban rate of {banRate}%.</t>
+  </si>
+  <si>
+    <t>{championName} Runes for Patch {patch} based on professional matches. Check out which Runes are used by the best players.</t>
   </si>
 </sst>
 </file>
@@ -3300,18 +3318,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U174"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B174" sqref="B174"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -3395,7 +3414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>594</v>
       </c>
@@ -3409,7 +3428,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>595</v>
       </c>
@@ -3423,7 +3442,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3437,7 +3456,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>831</v>
       </c>
@@ -3448,7 +3467,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>822</v>
       </c>
@@ -3459,7 +3478,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>823</v>
       </c>
@@ -3470,7 +3489,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
@@ -3484,9 +3503,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>834</v>
@@ -3495,7 +3514,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
@@ -3509,7 +3528,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>286</v>
       </c>
@@ -3523,7 +3542,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>288</v>
       </c>
@@ -3537,7 +3556,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>775</v>
       </c>
@@ -3548,7 +3567,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>835</v>
       </c>
@@ -3559,7 +3578,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>796</v>
       </c>
@@ -3570,7 +3589,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>799</v>
       </c>
@@ -3581,7 +3600,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>800</v>
       </c>
@@ -3592,7 +3611,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>801</v>
       </c>
@@ -3603,7 +3622,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
@@ -3617,7 +3636,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>335</v>
       </c>
@@ -3631,7 +3650,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -3645,7 +3664,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>290</v>
       </c>
@@ -3659,7 +3678,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
@@ -3687,7 +3706,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>816</v>
       </c>
@@ -3701,7 +3720,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -3715,18 +3734,18 @@
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>115</v>
       </c>
@@ -3740,7 +3759,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
@@ -3754,7 +3773,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>293</v>
       </c>
@@ -3768,7 +3787,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>294</v>
       </c>
@@ -3782,7 +3801,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>320</v>
       </c>
@@ -3796,7 +3815,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>298</v>
       </c>
@@ -3810,7 +3829,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>622</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>623</v>
       </c>
@@ -3838,7 +3857,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>626</v>
       </c>
@@ -3852,7 +3871,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>627</v>
       </c>
@@ -3866,7 +3885,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>629</v>
       </c>
@@ -3880,7 +3899,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>630</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>631</v>
       </c>
@@ -3908,7 +3927,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>632</v>
       </c>
@@ -3922,7 +3941,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>643</v>
       </c>
@@ -3936,7 +3955,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>645</v>
       </c>
@@ -3950,7 +3969,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
@@ -3964,7 +3983,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
@@ -3978,7 +3997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>77</v>
       </c>
@@ -3992,7 +4011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>78</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>82</v>
       </c>
@@ -4020,18 +4039,18 @@
         <v>735</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>837</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>813</v>
       </c>
@@ -4042,7 +4061,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>249</v>
       </c>
@@ -4056,7 +4075,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>252</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>254</v>
       </c>
@@ -4084,7 +4103,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>256</v>
       </c>
@@ -4098,7 +4117,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>257</v>
       </c>
@@ -4112,7 +4131,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>258</v>
       </c>
@@ -4126,7 +4145,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>807</v>
       </c>
@@ -4137,7 +4156,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>310</v>
       </c>
@@ -4151,7 +4170,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>311</v>
       </c>
@@ -4165,7 +4184,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>312</v>
       </c>
@@ -4179,7 +4198,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>265</v>
       </c>
@@ -4193,7 +4212,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>649</v>
       </c>
@@ -4207,7 +4226,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>263</v>
       </c>
@@ -4221,7 +4240,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>283</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>846</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>276</v>
       </c>
@@ -4260,7 +4279,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>279</v>
       </c>
@@ -4274,7 +4293,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>683</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>281</v>
       </c>
@@ -4302,7 +4321,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>302</v>
       </c>
@@ -4316,7 +4335,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>828</v>
       </c>
@@ -4327,7 +4346,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>304</v>
       </c>
@@ -4341,7 +4360,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>307</v>
       </c>
@@ -4355,7 +4374,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>323</v>
       </c>
@@ -4366,7 +4385,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>327</v>
       </c>
@@ -4377,7 +4396,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>324</v>
       </c>
@@ -4388,7 +4407,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>325</v>
       </c>
@@ -4399,7 +4418,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>326</v>
       </c>
@@ -4410,7 +4429,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>336</v>
       </c>
@@ -4424,7 +4443,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>687</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>690</v>
       </c>
@@ -4452,7 +4471,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>339</v>
       </c>
@@ -4469,7 +4488,7 @@
       </c>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>612</v>
       </c>
@@ -4486,7 +4505,7 @@
       </c>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>606</v>
       </c>
@@ -4503,7 +4522,7 @@
       </c>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>607</v>
       </c>
@@ -4520,7 +4539,7 @@
       </c>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>608</v>
       </c>
@@ -4537,7 +4556,7 @@
       </c>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>857</v>
       </c>
@@ -4554,7 +4573,7 @@
       </c>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>696</v>
       </c>
@@ -4571,7 +4590,7 @@
       </c>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>819</v>
       </c>
@@ -4585,7 +4604,7 @@
       <c r="K89" s="5"/>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>842</v>
       </c>
@@ -4599,7 +4618,7 @@
       <c r="K90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>839</v>
       </c>
@@ -4613,7 +4632,7 @@
       <c r="K91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>693</v>
       </c>
@@ -4630,7 +4649,7 @@
       </c>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>810</v>
       </c>
@@ -4644,7 +4663,7 @@
       <c r="K93" s="5"/>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>699</v>
       </c>
@@ -4661,7 +4680,7 @@
       </c>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>702</v>
       </c>
@@ -4678,7 +4697,7 @@
       </c>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>793</v>
       </c>
@@ -4692,7 +4711,7 @@
       <c r="K96" s="5"/>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>787</v>
       </c>
@@ -4706,7 +4725,7 @@
       <c r="K97" s="5"/>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>778</v>
       </c>
@@ -4720,7 +4739,7 @@
       <c r="K98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>790</v>
       </c>
@@ -4734,7 +4753,7 @@
       <c r="K99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>780</v>
       </c>
@@ -4748,7 +4767,7 @@
       <c r="K100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>782</v>
       </c>
@@ -4762,7 +4781,7 @@
       <c r="K101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>617</v>
       </c>
@@ -4779,7 +4798,7 @@
       </c>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>600</v>
       </c>
@@ -4796,7 +4815,7 @@
       </c>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>601</v>
       </c>
@@ -4811,7 +4830,7 @@
       </c>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>59</v>
       </c>
@@ -4859,7 +4878,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>7</v>
       </c>
@@ -4907,7 +4926,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +4974,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>5</v>
       </c>
@@ -5003,7 +5022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5070,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>62</v>
       </c>
@@ -5099,7 +5118,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>8</v>
       </c>
@@ -5147,7 +5166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>9</v>
       </c>
@@ -5195,7 +5214,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>11</v>
       </c>
@@ -5291,7 +5310,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>12</v>
       </c>
@@ -5339,7 +5358,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -5387,7 +5406,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>14</v>
       </c>
@@ -5435,7 +5454,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>15</v>
       </c>
@@ -5483,7 +5502,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>16</v>
       </c>
@@ -5531,7 +5550,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>64</v>
       </c>
@@ -5579,7 +5598,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>17</v>
       </c>
@@ -5627,7 +5646,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>18</v>
       </c>
@@ -5675,7 +5694,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>19</v>
       </c>
@@ -5723,7 +5742,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>20</v>
       </c>
@@ -5771,7 +5790,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>21</v>
       </c>
@@ -5819,7 +5838,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>65</v>
       </c>
@@ -5867,7 +5886,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>22</v>
       </c>
@@ -5915,7 +5934,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>23</v>
       </c>
@@ -5963,7 +5982,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>24</v>
       </c>
@@ -6011,7 +6030,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>25</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>66</v>
       </c>
@@ -6107,7 +6126,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>26</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>27</v>
       </c>
@@ -6203,7 +6222,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>28</v>
       </c>
@@ -6251,7 +6270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>29</v>
       </c>
@@ -6299,7 +6318,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>30</v>
       </c>
@@ -6347,7 +6366,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>31</v>
       </c>
@@ -6395,7 +6414,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>272</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>848</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -6422,7 +6441,7 @@
         <v>849</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -6430,7 +6449,7 @@
         <v>850</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -6438,7 +6457,7 @@
         <v>851</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -6446,290 +6465,336 @@
         <v>855</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>881</v>
+        <v>930</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>856</v>
+        <v>931</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>897</v>
+        <v>932</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>853</v>
+        <v>935</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B148" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+      <c r="B149" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="C149" s="14" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C155" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>903</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B154" s="9" t="s">
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C156" s="9" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>926</v>
+        <v>916</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U176" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="meta.head.description.builds"/>
+        <filter val="meta.head.description.champion.builds"/>
+        <filter val="meta.head.description.champion.featuredBuild"/>
+        <filter val="meta.head.description.champion.runes"/>
+        <filter val="meta.head.description.champion.statistics"/>
+        <filter val="meta.head.description.champions"/>
+        <filter val="meta.head.description.frontpage"/>
+        <filter val="meta.head.description.live"/>
+        <filter val="meta.head.description.match"/>
+        <filter val="meta.head.description.pro.builds"/>
+        <filter val="meta.head.description.pros"/>
+        <filter val="meta.head.title.builds"/>
+        <filter val="meta.head.title.champion.builds"/>
+        <filter val="meta.head.title.champion.featuredBuild"/>
+        <filter val="meta.head.title.champion.runes"/>
+        <filter val="meta.head.title.champion.statistics"/>
+        <filter val="meta.head.title.champions"/>
+        <filter val="meta.head.title.frontpage"/>
+        <filter val="meta.head.title.live"/>
+        <filter val="meta.head.title.match"/>
+        <filter val="meta.head.title.pro.builds"/>
+        <filter val="meta.head.title.pros"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A082B278-6C36-4D28-A171-8A2267A11D11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D74AD-7788-42CA-9808-AE37AF63C428}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24435" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,24 @@
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$U$189</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1277">
   <si>
     <t>en_US</t>
   </si>
@@ -411,9 +416,6 @@
     <t>Kampf</t>
   </si>
   <si>
-    <t>Größter Blutrausch</t>
-  </si>
-  <si>
     <t>Größte Mehrfachtötung</t>
   </si>
   <si>
@@ -888,9 +890,6 @@
     <t>Fähigkeitenzauber-Skillreihenfolge</t>
   </si>
   <si>
-    <t>champions</t>
-  </si>
-  <si>
     <t>Champions</t>
   </si>
   <si>
@@ -1026,9 +1025,6 @@
     <t>Support</t>
   </si>
   <si>
-    <t>ADCarry</t>
-  </si>
-  <si>
     <t>Loading …</t>
   </si>
   <si>
@@ -2175,9 +2171,6 @@
     <t>Szukaj bohaterów i profesjonalistów</t>
   </si>
   <si>
-    <t>Szukaj bohatera</t>
-  </si>
-  <si>
     <t>Szukaj profesjonalisty</t>
   </si>
   <si>
@@ -2274,9 +2267,6 @@
     <t>Według rozdanych umiejętności</t>
   </si>
   <si>
-    <t>Ukończony build</t>
-  </si>
-  <si>
     <t>Runa kluczowa</t>
   </si>
   <si>
@@ -2721,9 +2711,6 @@
     <t>Learn from the best Pro players of the world by watching them playing League of Legends Live.</t>
   </si>
   <si>
-    <t>{championName} Builds for Patch {patch} from professional LoL players. {championName} is mostly played on {positions} position. Use one of our many filters to find the perfect {championName} Build.</t>
-  </si>
-  <si>
     <t>Best Builds of professional LoL player {nickName} ({firstName} {lastName}). {nickName} plays on {position} position.</t>
   </si>
   <si>
@@ -2821,6 +2808,1062 @@
   </si>
   <si>
     <t>{championName} Statistics for Patch {patch} based on professional matches. Check out the most used Items, Boots, Skill Orders, Runes, Spells and many more statistics.</t>
+  </si>
+  <si>
+    <t>participant.laneOutcomeVictoryDescription</t>
+  </si>
+  <si>
+    <t>participant.laneOutcomeDefeatDescription</t>
+  </si>
+  <si>
+    <t>participant.laneOutcomeDrawDescription</t>
+  </si>
+  <si>
+    <t>The summoner won the Lane Phase against his opponent!</t>
+  </si>
+  <si>
+    <t>The summoner lost the Lane Phase against his opponent!</t>
+  </si>
+  <si>
+    <t>The Lane Phase ended in a draw for the summoner against his opponent!</t>
+  </si>
+  <si>
+    <t>Der Beschwörer hat die Lane-Phase gegen seinen Gegner gewonnen!</t>
+  </si>
+  <si>
+    <t>Der Beschwörer hat die Lane-Phase gegen seinen Gegner verloren!</t>
+  </si>
+  <si>
+    <t>Die Lane-Phase endete für den Beschwörer gegen seinen Gegner mit einem Unentschieden!</t>
+  </si>
+  <si>
+    <t>table.header.winRate</t>
+  </si>
+  <si>
+    <t>table.header.name</t>
+  </si>
+  <si>
+    <t>table.header.position</t>
+  </si>
+  <si>
+    <t>table.header.winLoss</t>
+  </si>
+  <si>
+    <t>Win/Loss</t>
+  </si>
+  <si>
+    <t>table.header.pickRate</t>
+  </si>
+  <si>
+    <t>table.header.banRate</t>
+  </si>
+  <si>
+    <t>table.header.KDA</t>
+  </si>
+  <si>
+    <t>table.header.minionsKilled</t>
+  </si>
+  <si>
+    <t>table.header.damageDealt</t>
+  </si>
+  <si>
+    <t>table.header.damageTaken</t>
+  </si>
+  <si>
+    <t>table.header.goldEarned</t>
+  </si>
+  <si>
+    <t>table.header.matchLength</t>
+  </si>
+  <si>
+    <t>Damage Taken</t>
+  </si>
+  <si>
+    <t>Minions Killed</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>Hakkımızda</t>
+  </si>
+  <si>
+    <t>İletişim</t>
+  </si>
+  <si>
+    <t>Son Maçlar</t>
+  </si>
+  <si>
+    <t>Şu An Yayınlanan Maç</t>
+  </si>
+  <si>
+    <t>Şu An Oynanan Maç</t>
+  </si>
+  <si>
+    <t>Şu An Oynanan Maçlar</t>
+  </si>
+  <si>
+    <t>Son Aramalar</t>
+  </si>
+  <si>
+    <t>Canlı Yayın</t>
+  </si>
+  <si>
+    <t>Favoriler</t>
+  </si>
+  <si>
+    <t>Şampiyonlar</t>
+  </si>
+  <si>
+    <t>Prolar</t>
+  </si>
+  <si>
+    <t>Gece Modu</t>
+  </si>
+  <si>
+    <t>Canlı Yayın Sohbeti</t>
+  </si>
+  <si>
+    <t>Şu bölgeler hariç:</t>
+  </si>
+  <si>
+    <t>Batı Avrupa</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>Kuzey Amerika</t>
+  </si>
+  <si>
+    <t>Daha fazla göster …</t>
+  </si>
+  <si>
+    <t>Yükleniyor …</t>
+  </si>
+  <si>
+    <t>Ara …</t>
+  </si>
+  <si>
+    <t>Şampiyon ya da Pro ara …</t>
+  </si>
+  <si>
+    <t>Şampiyon ara …</t>
+  </si>
+  <si>
+    <t>Pro ara …</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere uygun pro maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere uygun maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere göre şampiyon bulunamadı!</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere göre Pro bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de şampiyon bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de Pro bulunamadı!</t>
+  </si>
+  <si>
+    <t>Bu URL'de maç bulunamadı!</t>
+  </si>
+  <si>
+    <t>Hata halinde bizle iletişime geçin</t>
+  </si>
+  <si>
+    <t>Mail başarıyla gönderildi</t>
+  </si>
+  <si>
+    <t>Mailinizi aldık ve en kısa zamanda cevap vereceğiz. İletişim kurduğunuz için teşekkürler</t>
+  </si>
+  <si>
+    <t>Yakında başlıyor</t>
+  </si>
+  <si>
+    <t>Tarafından oynandı</t>
+  </si>
+  <si>
+    <t>Girdiğiniz kriterlere göre İstatistikler bulunamadı!</t>
+  </si>
+  <si>
+    <t>{championName} Rünleri {patch}</t>
+  </si>
+  <si>
+    <t>{championName} İstatistikler {patch}</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>Konu</t>
+  </si>
+  <si>
+    <t>Mesaj</t>
+  </si>
+  <si>
+    <t>Bize bir mesaj bırakın</t>
+  </si>
+  <si>
+    <t>Paylaş</t>
+  </si>
+  <si>
+    <t>Bir hata oluştu</t>
+  </si>
+  <si>
+    <t>Lütfen iletişim formunu paylaşmadan önce CAPTCHA'yı çözün</t>
+  </si>
+  <si>
+    <t>Başka kriterler kullanmayı deneyin</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>Maç Uzunluğu</t>
+  </si>
+  <si>
+    <t>Maça git</t>
+  </si>
+  <si>
+    <t>yaş {age}</t>
+  </si>
+  <si>
+    <t>Analiz</t>
+  </si>
+  <si>
+    <t>Tablolar</t>
+  </si>
+  <si>
+    <t>Skor tablosu</t>
+  </si>
+  <si>
+    <t>Rakip</t>
+  </si>
+  <si>
+    <t>Oynandı</t>
+  </si>
+  <si>
+    <t>Genel Bakış</t>
+  </si>
+  <si>
+    <t>Diğer Oyuncular</t>
+  </si>
+  <si>
+    <t>İstatistikler</t>
+  </si>
+  <si>
+    <t>Özet</t>
+  </si>
+  <si>
+    <t>En popüler</t>
+  </si>
+  <si>
+    <t>Eşya Satın Alma Sırası</t>
+  </si>
+  <si>
+    <t>Yetenek Geliştirme Sırası</t>
+  </si>
+  <si>
+    <t>Evrim Sırası</t>
+  </si>
+  <si>
+    <t>En Son Eşya Buildi</t>
+  </si>
+  <si>
+    <t>Anahtar Kabiliyet</t>
+  </si>
+  <si>
+    <t>Anahtar Rünler</t>
+  </si>
+  <si>
+    <t>Pozisyon</t>
+  </si>
+  <si>
+    <t>Yama {patch}</t>
+  </si>
+  <si>
+    <t>İzle</t>
+  </si>
+  <si>
+    <t>Mükemmel</t>
+  </si>
+  <si>
+    <t>Skor Katkısı</t>
+  </si>
+  <si>
+    <t>Üst Koridor</t>
+  </si>
+  <si>
+    <t>Orman</t>
+  </si>
+  <si>
+    <t>Orta Koridor</t>
+  </si>
+  <si>
+    <t>Destek</t>
+  </si>
+  <si>
+    <t>Küme</t>
+  </si>
+  <si>
+    <t>Bedava</t>
+  </si>
+  <si>
+    <t>Kazandı</t>
+  </si>
+  <si>
+    <t>Oynanıyor</t>
+  </si>
+  <si>
+    <t>Yeniden Kurma</t>
+  </si>
+  <si>
+    <t>Zafer</t>
+  </si>
+  <si>
+    <t>Bozgun</t>
+  </si>
+  <si>
+    <t>En Popüler Buidler</t>
+  </si>
+  <si>
+    <t>En Popüler Eşyalar</t>
+  </si>
+  <si>
+    <t>Hedef</t>
+  </si>
+  <si>
+    <t>İndirim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evrim </t>
+  </si>
+  <si>
+    <t>Başlangıç Eşyaları</t>
+  </si>
+  <si>
+    <t>Başlangıç Ziyneti</t>
+  </si>
+  <si>
+    <t>En Son Ziynet</t>
+  </si>
+  <si>
+    <t>En Son Çizme</t>
+  </si>
+  <si>
+    <t>İlk Eşya</t>
+  </si>
+  <si>
+    <t>İlk İki Eşya</t>
+  </si>
+  <si>
+    <t>İlk Üç Eşya</t>
+  </si>
+  <si>
+    <t>Üçüncü Eşya</t>
+  </si>
+  <si>
+    <t>Dördüncü Eşya</t>
+  </si>
+  <si>
+    <t>Beşinci Eşya</t>
+  </si>
+  <si>
+    <t>Bize Ulaşın</t>
+  </si>
+  <si>
+    <t>Yasal Açıklama</t>
+  </si>
+  <si>
+    <t>Gizlilik Politikası</t>
+  </si>
+  <si>
+    <t>İlk Kule Yok Edildi</t>
+  </si>
+  <si>
+    <t>Pro Buildleri {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{patch} için Oynayışınızı Geliştirecek Profesyonel Oyunculardan En İyi Buildler, İstatistikler, Yetenek ve Eşya Sıraları ve çok daha fazlası.</t>
+  </si>
+  <si>
+    <t>{nickName} Eşya Dizilimleri {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Profesyonel Oyuncu {nickName} ({firstName} {lastName}) için En İyi Eşya dizilimleri! {nickname} {position}'da oynuyor.</t>
+  </si>
+  <si>
+    <t>{championName} Eyşa Dizilimleri {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Eşya Dizilimleri</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimleri {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimi {patch} {position}</t>
+  </si>
+  <si>
+    <t>{championName} için Eşya Dizilimi Ara …</t>
+  </si>
+  <si>
+    <t>Eşya Dizilimleri</t>
+  </si>
+  <si>
+    <t>Önerilen Eşya Dizilimi</t>
+  </si>
+  <si>
+    <t>{patch} {platform} {gameId}'de Pro Maç! | LoL VVV</t>
+  </si>
+  <si>
+    <t>{patch} yamasında Oynanan Pro Oyunlar: {prosList}</t>
+  </si>
+  <si>
+    <t>{championName} Eşya Dizilimi {patch} {position} vs {opponentName} by {nickName} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName}'nin {position} pozisyonunda {opponentName}'ye karşı {patch} yamasında oynadığı Eşya Dizilimleri. Yetenek ve Eşya Sıraları, Rünler ve çok daha fazlası.</t>
+  </si>
+  <si>
+    <t>Şampiyonlar {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Eşya Dizilimleri, Rehberler, Eşya ve Yetenek Sıraları {patch} ve bütün pozisyonlar için!</t>
+  </si>
+  <si>
+    <t>Prolar {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Bütün Dünyadan en iyi Eşya Dizimlerini, Rehberleri, Yetenek ve Eşya sıralarını profesyonellerden size sunuyoruz.</t>
+  </si>
+  <si>
+    <t>Proları canlı İzle | LoL VVV</t>
+  </si>
+  <si>
+    <t>Proları canlı izleyerek Dünyanın en iyi oyuncularından öğren</t>
+  </si>
+  <si>
+    <t>Seçilme Oranı</t>
+  </si>
+  <si>
+    <t>Yasaklanma Oranı</t>
+  </si>
+  <si>
+    <t>룬</t>
+  </si>
+  <si>
+    <t>{championName} 룬 {patch}</t>
+  </si>
+  <si>
+    <t>{championName} 룬 {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>개인정보처리방침</t>
+  </si>
+  <si>
+    <t>시작 아이템</t>
+  </si>
+  <si>
+    <t>신발</t>
+  </si>
+  <si>
+    <t>픽률</t>
+  </si>
+  <si>
+    <t>승률</t>
+  </si>
+  <si>
+    <t>탑</t>
+  </si>
+  <si>
+    <t>정글</t>
+  </si>
+  <si>
+    <t>미드</t>
+  </si>
+  <si>
+    <t>바텀</t>
+  </si>
+  <si>
+    <t>서포터</t>
+  </si>
+  <si>
+    <t>밴률</t>
+  </si>
+  <si>
+    <t>챔피언 검색</t>
+  </si>
+  <si>
+    <t>챔피언스</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>로테이션</t>
+  </si>
+  <si>
+    <t>버전 {patch}</t>
+  </si>
+  <si>
+    <t>Wersja {patch}</t>
+  </si>
+  <si>
+    <t>통계</t>
+  </si>
+  <si>
+    <t>{championName} 통계 {patch}</t>
+  </si>
+  <si>
+    <t>{championName} 통계 {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} İstatistikler {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statystyki {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Statystyki {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>{championName} 統計 {patch}</t>
+  </si>
+  <si>
+    <t>{championName} 統計 {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>トップ</t>
+  </si>
+  <si>
+    <t>ジャングル</t>
+  </si>
+  <si>
+    <t>ミッド</t>
+  </si>
+  <si>
+    <t>サポート</t>
+  </si>
+  <si>
+    <t>チャンピオンを検索する</t>
+  </si>
+  <si>
+    <t>勝率</t>
+  </si>
+  <si>
+    <t>Siegrate</t>
+  </si>
+  <si>
+    <t>Wahlrate</t>
+  </si>
+  <si>
+    <t>Banrate</t>
+  </si>
+  <si>
+    <t>ピック率</t>
+  </si>
+  <si>
+    <t>禁止率</t>
+  </si>
+  <si>
+    <t>無料</t>
+  </si>
+  <si>
+    <t>バージョン {patch}</t>
+  </si>
+  <si>
+    <t>観戦</t>
+  </si>
+  <si>
+    <t>관전</t>
+  </si>
+  <si>
+    <t>Topo</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t>Meio</t>
+  </si>
+  <si>
+    <t>Suporte</t>
+  </si>
+  <si>
+    <t>T. de Vitória</t>
+  </si>
+  <si>
+    <t>T. de Escolha</t>
+  </si>
+  <si>
+    <t>T. de Banimento</t>
+  </si>
+  <si>
+    <t>Versão {patch}</t>
+  </si>
+  <si>
+    <t>Rotação</t>
+  </si>
+  <si>
+    <t>チャンピオンズ</t>
+  </si>
+  <si>
+    <t>Campeões</t>
+  </si>
+  <si>
+    <t>Estatísticas</t>
+  </si>
+  <si>
+    <t>{championName} Estatísticas {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Estatísticas {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>上单</t>
+  </si>
+  <si>
+    <t>打野</t>
+  </si>
+  <si>
+    <t>中单</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>{championName} 统计 {patch}</t>
+  </si>
+  <si>
+    <t>{championName} 统计 {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>版本 {patch}</t>
+  </si>
+  <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>登场率</t>
+  </si>
+  <si>
+    <t>禁用率</t>
+  </si>
+  <si>
+    <t>Kazanmak Oranı</t>
+  </si>
+  <si>
+    <t>搜索英雄</t>
+  </si>
+  <si>
+    <t>周免英雄</t>
+  </si>
+  <si>
+    <t>职业选手视角观战</t>
+  </si>
+  <si>
+    <t>Olhar</t>
+  </si>
+  <si>
+    <t>Zegarek</t>
+  </si>
+  <si>
+    <t>Верхняя</t>
+  </si>
+  <si>
+    <t>Лес</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Поддержка</t>
+  </si>
+  <si>
+    <t>AdCarry</t>
+  </si>
+  <si>
+    <t>Статистика</t>
+  </si>
+  <si>
+    <t>{championName} Статистика {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Статистика {patch}</t>
+  </si>
+  <si>
+    <t>Винрейт</t>
+  </si>
+  <si>
+    <t>Пикрейт</t>
+  </si>
+  <si>
+    <t>Проц. Банов</t>
+  </si>
+  <si>
+    <t>Поиск чемпиона …</t>
+  </si>
+  <si>
+    <t>Pesquisar Campeão …</t>
+  </si>
+  <si>
+    <t>Szukaj bohatera …</t>
+  </si>
+  <si>
+    <t>Версия {patch}</t>
+  </si>
+  <si>
+    <t>быть зрителем</t>
+  </si>
+  <si>
+    <t>Чемпионы</t>
+  </si>
+  <si>
+    <t>Руны</t>
+  </si>
+  <si>
+    <t>{championName} Руны {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Руны {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>승리</t>
+  </si>
+  <si>
+    <t>패배</t>
+  </si>
+  <si>
+    <t>빌드</t>
+  </si>
+  <si>
+    <t>{nickName} 빌드</t>
+  </si>
+  <si>
+    <t>{nickName} 빌드 {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} 빌드 {patch}</t>
+  </si>
+  <si>
+    <t>{championName} 빌드 {patch} {position}</t>
+  </si>
+  <si>
+    <t>{championName} 빌드 {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>勝利</t>
+  </si>
+  <si>
+    <t>敗北</t>
+  </si>
+  <si>
+    <t>キル関与</t>
+  </si>
+  <si>
+    <t>ルーン</t>
+  </si>
+  <si>
+    <t>{championName} ルーン {patch}</t>
+  </si>
+  <si>
+    <t>{championName} ルーン {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Runy</t>
+  </si>
+  <si>
+    <t>{championName} Runy {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Runy {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Runas</t>
+  </si>
+  <si>
+    <t>{championName} Runas {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Runas {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>お気に入り</t>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+  </si>
+  <si>
+    <t>Favoritos</t>
+  </si>
+  <si>
+    <t>Избранные</t>
+  </si>
+  <si>
+    <t>最爱</t>
+  </si>
+  <si>
+    <t>Сборки</t>
+  </si>
+  <si>
+    <t>{championName} Сборки {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Сборки {patch} {position}</t>
+  </si>
+  <si>
+    <t>{championName} Сборки {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Сборки {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Сборки</t>
+  </si>
+  <si>
+    <t>Про</t>
+  </si>
+  <si>
+    <t>Про {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Поражение</t>
+  </si>
+  <si>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t>Profissionais</t>
+  </si>
+  <si>
+    <t>Profissionais {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Derrota</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Atirador</t>
+  </si>
+  <si>
+    <t>下路</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>{championName} Statistiques {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statistiques {patch}</t>
+  </si>
+  <si>
+    <t>Estadística</t>
+  </si>
+  <si>
+    <t>{championName} Estadística {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Estadística {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Statistica</t>
+  </si>
+  <si>
+    <t>{championName} Statistica {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statistica {patch}</t>
+  </si>
+  <si>
+    <t>Στατιστική</t>
+  </si>
+  <si>
+    <t>{championName} Στατιστική {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Στατιστική {patch}</t>
+  </si>
+  <si>
+    <t>Statisztika</t>
+  </si>
+  <si>
+    <t>{championName} Statisztika {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Statisztika {patch}</t>
+  </si>
+  <si>
+    <t>Tirador</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Jungla</t>
+  </si>
+  <si>
+    <t>Apoyo</t>
+  </si>
+  <si>
+    <t>Versión {patch}</t>
+  </si>
+  <si>
+    <t>英雄数据</t>
+  </si>
+  <si>
+    <t>Suche Build für {championName} …</t>
+  </si>
+  <si>
+    <t>KTU</t>
+  </si>
+  <si>
+    <t>Längster Blutrausch</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>{nickName} ビルド</t>
+  </si>
+  <si>
+    <t>{championName} ビルド {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} ビルド {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>スキルオーダー</t>
+  </si>
+  <si>
+    <t>試合時間</t>
+  </si>
+  <si>
+    <t>最終ビルド</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>プロ</t>
+  </si>
+  <si>
+    <t>プロ {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Besten Builds, Guides, Statistiken, Skill- und Gegenständekaufreihenfolge und vieles mehr Pro Spielern für Patch {patch}, welche deinen Spielstil verbessern werden.</t>
+  </si>
+  <si>
+    <t>Besten Builds von LoL Pro {nickName} ({firstName} {lastName}). {nickName} spielt auf Position {position}.</t>
+  </si>
+  <si>
+    <t>{championName} Builds für Patch {patch} von professionellen LoL Spielern. {championName} wird meistens auf Position {positions} gespielt. Nutze einen unserer vielen Filtern, um das optimale {championName} Build zu finden.</t>
+  </si>
+  <si>
+    <t>Pro Match auf Patch {patch} {platform} {gameId} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Build {patch} {position} gegen {opponentName} von {nickName} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Build auf {position} gegen {opponentName} von Pro {nickName} auf Patch {patch}. Skill- und Gegenständekaufreihenfolge, Runen und vieles mehr.</t>
+  </si>
+  <si>
+    <t>Pro Match gespielt von Pros {prosList} auf Patch {patch} in der Region {platform}.</t>
+  </si>
+  <si>
+    <t>Schaue Pros Live zu | LoL VVV</t>
+  </si>
+  <si>
+    <t>Lerne von den besten Pro Spielern indem du Live zusiehst.</t>
+  </si>
+  <si>
+    <t>Wir stellen die aktuellsten und besten Builds, Guides, Skill- und Gegenständekaufreihenfolge, Runen und vieles mehr für Champions von den besten League of Legends Pros zur Verfügung.</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>{championName} Builds für Patch {patch} von professionellen LoL Spielern. {championName} wird meistens auf Position {positions} gespielt. Nutze einen unseren vielen Filter, um das perfekte {championName} Build zu finden.</t>
+  </si>
+  <si>
+    <t>Finde Builds, Guides, Statistiken, Skill- Gegenständekaufreihenfolgen, Runen und viele mehr für Patch {patch} für alle League of Legends Champions auf allen Positionen.</t>
+  </si>
+  <si>
+    <t>Finde Builds, Guides, Statistiken, Skill- und Gegenständekaufreihenfolgen und vieles mehr für Patch {patch} der besten professionellen League of Legends Spieler.</t>
+  </si>
+  <si>
+    <t>Nie znaleziono pasujących statystyki!</t>
+  </si>
+  <si>
+    <t>Rozegrano przez</t>
+  </si>
+  <si>
+    <t>Układy</t>
+  </si>
+  <si>
+    <t>Ukończony układ</t>
+  </si>
+  <si>
+    <t>Pro Układy {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Układy {position} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{championName} Układy {patch} {positions} | LoL VVV</t>
+  </si>
+  <si>
+    <t>{nickName} Układy</t>
+  </si>
+  <si>
+    <t>{championName} Układy {patch}</t>
+  </si>
+  <si>
+    <t>{championName} Układ {patch} {position}</t>
+  </si>
+  <si>
+    <t>Opisany Układ</t>
+  </si>
+  <si>
+    <t>Bohaterowie {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>Rünleri</t>
+  </si>
+  <si>
+    <t>{championName} Rünleri {patch} | LoL VVV</t>
+  </si>
+  <si>
+    <t>menu.primary.champions</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +4010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2979,12 +4022,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -3300,13 +4349,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U174"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:U189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B174" sqref="B174"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,20 +4364,20 @@
     <col min="1" max="1" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="4"/>
-    <col min="11" max="11" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="46" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="4"/>
+    <col min="14" max="14" width="44.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="41.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="4" customWidth="1"/>
     <col min="19" max="19" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="4"/>
   </cols>
@@ -3359,7 +4409,7 @@
         <v>97</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>91</v>
@@ -3374,7 +4424,7 @@
         <v>99</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>100</v>
@@ -3397,3339 +4447,5154 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>596</v>
+        <v>249</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>597</v>
+        <v>250</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>597</v>
+        <v>732</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>684</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>686</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>833</v>
+        <v>251</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>822</v>
+        <v>909</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>826</v>
+        <v>829</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>823</v>
+        <v>906</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>825</v>
+        <v>907</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>827</v>
+        <v>1111</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>707</v>
+        <v>903</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>834</v>
+        <v>908</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>834</v>
+        <v>1110</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>708</v>
+        <v>901</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>709</v>
+        <v>734</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>710</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>777</v>
+        <v>592</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>835</v>
+        <v>614</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>836</v>
+        <v>615</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>836</v>
+        <v>616</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>798</v>
+        <v>296</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>624</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>636</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>818</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>1192</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="U66" s="9" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="S82" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="S83" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="N84" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="S84" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O85" s="5"/>
+      <c r="Q85" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="S86" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B87" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q87" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="N82" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="O82" s="5"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="N83" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="O83" s="5"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="N84" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O84" s="5"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="N85" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="O85" s="5"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="N86" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="O86" s="5"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="N87" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="O87" s="5"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="N88" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="O88" s="5"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E88" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q88" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="U88" s="9" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>819</v>
+        <v>864</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>820</v>
+        <v>869</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>869</v>
+      </c>
       <c r="K89" s="5"/>
+      <c r="N89" s="9" t="s">
+        <v>1273</v>
+      </c>
       <c r="O89" s="5"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S89" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="J90" s="5"/>
+        <v>871</v>
+      </c>
       <c r="K90" s="5"/>
+      <c r="N90" s="9" t="s">
+        <v>871</v>
+      </c>
       <c r="O90" s="5"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S90" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>839</v>
+        <v>888</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>840</v>
+        <v>889</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="J91" s="5"/>
+        <v>1255</v>
+      </c>
       <c r="K91" s="5"/>
       <c r="O91" s="5"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S91" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>693</v>
+        <v>860</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>694</v>
+        <v>879</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>1251</v>
+      </c>
       <c r="K92" s="5"/>
-      <c r="N92" s="4" t="s">
-        <v>768</v>
-      </c>
       <c r="O92" s="5"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S92" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>811</v>
+        <v>882</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+        <v>882</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>1267</v>
+      </c>
       <c r="O93" s="5"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>699</v>
+        <v>866</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="N94" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="O94" s="5"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="J95" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="K95" s="5"/>
       <c r="N95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O95" s="5"/>
+      <c r="S95" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="N96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O96" s="5"/>
+      <c r="S96" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="N97" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="O97" s="5"/>
+      <c r="S97" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="N98" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="O98" s="5"/>
+      <c r="S98" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="K99" s="5"/>
+      <c r="N99" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="O99" s="5"/>
+      <c r="S99" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="O101" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O102" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="P102" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q102" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="O103" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="O95" s="5"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="O96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="O97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="O98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="O99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="O100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="O101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="N102" s="4" t="s">
+      <c r="B104" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="O102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="C104" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="O104" s="5"/>
+      <c r="S104" s="9" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+    </row>
+    <row r="106" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+    </row>
+    <row r="107" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+    </row>
+    <row r="115" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="B115" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="e">
+        <f>+H85E84:F115:HE116</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+    </row>
+    <row r="116" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="N103" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="O103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="O104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="L105" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O105" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="P105" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q105" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K106" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="P106" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="S106" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="L107" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="P107" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S107" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K108" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O108" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P108" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S108" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O109" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="P109" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q109" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S109" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O110" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="P110" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q110" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="S110" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="K111" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="L111" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="P111" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q111" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S111" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="B116" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+    </row>
+    <row r="117" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+    </row>
+    <row r="118" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+    </row>
+    <row r="119" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+    </row>
+    <row r="120" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+    </row>
+    <row r="121" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+    </row>
+    <row r="122" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T122" s="4"/>
+      <c r="U122" s="9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+    </row>
+    <row r="124" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H112" s="8" t="s">
+      <c r="F124" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H124" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="K112" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="L112" s="10" t="s">
+      <c r="K124" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="L124" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="O112" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="P112" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q112" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S112" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="O113" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="P113" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q113" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="S113" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="K114" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="L114" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="O114" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="P114" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q114" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="S114" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="K115" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="L115" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O115" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="P115" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q115" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="S115" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="K116" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="O116" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="P116" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q116" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="S116" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="O117" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="P117" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q117" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="S117" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="O118" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="P118" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q118" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="S118" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="K119" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="L119" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="P119" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q119" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="S119" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="O120" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="P120" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q120" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="S120" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="K121" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="O121" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="P121" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q121" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="S121" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="O122" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="P122" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q122" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S122" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="K123" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="L123" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="O123" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="P123" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q123" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="S123" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K124" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="L124" s="10" t="s">
-        <v>669</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="Q125" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="O126" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="P126" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q126" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="S126" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+    </row>
+    <row r="128" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+    </row>
+    <row r="129" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+    </row>
+    <row r="130" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+    </row>
+    <row r="131" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M131" s="4"/>
+      <c r="N131" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="9" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="T132" s="4"/>
+      <c r="U132" s="9" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="T133" s="4"/>
+      <c r="U133" s="9" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="U134" s="9" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T135" s="4"/>
+      <c r="U135" s="9" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+    </row>
+    <row r="137" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="R137" s="4"/>
+      <c r="S137" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="S138" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="S139" s="9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="S140" s="9" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="S141" s="9" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="S143" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="S144" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="S145" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="S146" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L147" s="16"/>
+      <c r="N147" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q147" s="16"/>
+      <c r="S147" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q148" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="U148" s="9" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="S149" s="9" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="S150" s="9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O126" s="8" t="s">
+      <c r="O151" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="P126" s="8" t="s">
+      <c r="P151" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="Q126" s="8" t="s">
+      <c r="Q151" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="R151" s="7"/>
+      <c r="S151" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O152" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q152" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="S152" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U152" s="9" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="S153" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="S154" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="S155" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="S156" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q157" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S157" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U157" s="9" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="S158" s="9" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="S159" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="S160" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="S161" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O162" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q162" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="S162" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="U162" s="9" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S163" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S165" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="S166" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="S167" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="O169" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S169" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O170" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q170" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S170" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U170" s="9" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="N171" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="S171" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O173" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q173" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S173" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="U173" s="9" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="S174" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="S175" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="O176" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P176" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q176" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="P177" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q177" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="O178" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="P178" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q178" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="O179" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="P179" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q179" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O180" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="P180" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q180" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="O181" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="P181" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q181" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="T181" s="7"/>
+      <c r="U181" s="7"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="O182" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="P182" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q182" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="O183" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="P183" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q183" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="T183" s="7"/>
+      <c r="U183" s="7"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="S184" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="M185" s="10"/>
+      <c r="N185" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q185" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="T185" s="7"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="M186" s="10"/>
+      <c r="N186" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="O186" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="P186" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q186" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="O187" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q187" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="R187" s="7"/>
+      <c r="S187" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="T187" s="7"/>
+      <c r="U187" s="7"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="O188" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="P188" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q188" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="S126" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="K127" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="L127" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="O127" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="P127" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q127" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="S127" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="K128" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="L128" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="O128" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="P128" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q128" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="S128" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="K129" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="L129" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="O129" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="P129" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q129" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="S129" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K130" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="L130" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="O130" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="P130" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q130" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="S130" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="K131" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="L131" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="O131" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="P131" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q131" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="S131" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="K132" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="L132" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="O132" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="P132" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q132" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="S132" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="K133" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="L133" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="O133" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="P133" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q133" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S133" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="K134" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="L134" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="O134" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="P134" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q134" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="S134" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K135" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="L135" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="O135" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="P135" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q135" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="S135" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="K136" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="L136" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="O136" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="P136" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q136" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S136" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="K137" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="L137" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="O137" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="P137" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q137" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="S137" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N138" s="4" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>903</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>926</v>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="T188" s="7"/>
+      <c r="U188" s="7"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="S189" s="4" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U189" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:U189">
+      <sortCondition ref="A1:A189"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="D1:U1">
     <sortCondition ref="U1"/>
   </sortState>
